--- a/medicine/Mort/Décès_en_1916/Décès_en_1916.xlsx
+++ b/medicine/Mort/Décès_en_1916/Décès_en_1916.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Inconnu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paul Berthier, peintre et sculpteur français (° 1876).
 Cheong Fatt Tze, homme d'affaires et homme politique chinois (° 1840).
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 janvier : Mikhaïl Tkatchenko, peintre russe (° 18 novembre 1860).
 5 janvier : Ulpiano Checa y Sanz, peintre et graveur espagnol (° 3 avril 1860).
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er février : Lev Dmitriev-Kavkazski, graphiste et illustrateur russe (° 2 mars 1849).
 2 février : Gabriel Guérin, peintre français (° 21 décembre 1869).
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 mars : John Wesley Judd, géologue britannique (° 18 février 1840).
 4 mars : Franz Marc, peintre allemand, à Verdun (° 8 février 1880).
@@ -663,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,7 +701,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 avril :  Ernest-Auguste Le Villain, peintre paysagiste français (° 14 février 1845).
 9 avril : Wilhelm Sauer, facteur d'orgue allemand et fondateur de la maison Sauer (° 23 mars 1831).
@@ -700,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,7 +740,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>4 mai : Hector-Irénée Sevin, cardinal français, archevêque de Lyon (° 22 mars 1852).
 7 mai : François Joseph Girot, peintre français (° 25 août 1873).
@@ -742,7 +766,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -760,7 +784,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2 juin : Raffaele Faccioli, peintre italien (° 27 décembre 1845).
 11 juin : Ladislaus von Szögyény-Marich, diplomate autrichien puis austro-hongrois (° 12 novembre 1841).
@@ -779,7 +805,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,7 +823,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>5 juillet : Georges Lemmen, peintre, graveur et dessinateur impressionniste belge (° 25 novembre 1865).
 6 juillet :
@@ -820,7 +848,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -838,7 +866,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2 août : Hamish MacCunn, compositeur, pianiste et chef d'orchestre écossais (° 22 mars 1868).
 4 août : Frédéric Jansoone, religieux français (° 9 novembre 1838).
@@ -861,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -879,7 +909,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>3 septembre : 3 septembre : Germain Cuzacq, militaire français (° 11 juillet 1886).
 9 septembre :
@@ -902,7 +934,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,7 +952,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>19 octobre : Louis-Joseph-Raphaël Collin, peintre et illustrateur français (° 17 juin 1850).
 22 octobre : Nikolaï Mechtcherine, peintre russe (° 28 février 1864).
@@ -934,7 +968,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -952,7 +986,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1er novembre : Victor-Oscar Guétin, peintre français (° 17 mars 1872).
 6 novembre : Stanislas Torrents, peintre français (° 23 mai 1839).
@@ -974,7 +1010,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1916</t>
+          <t>Décès_en_1916</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -992,7 +1028,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1er décembre : Charles de Foucauld, officier de cavalerie de l'armée française devenu explorateur et géographe, puis religieux catholique, ermite et linguiste (° 15 septembre 1858).
 6 décembre :
